--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>SDP</t>
   </si>
@@ -55,13 +54,13 @@
     <t>Performance Metrics</t>
   </si>
   <si>
-    <t>% of successfully routed packets</t>
+    <t>Percent Success</t>
   </si>
   <si>
-    <t>Avg. number of hops per circuit</t>
+    <t>Num hops</t>
   </si>
   <si>
-    <t>Avg. cum. prop. delay per circ.</t>
+    <t>Prop delay</t>
   </si>
 </sst>
 </file>
@@ -122,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -136,6 +135,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,7 +234,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$19</c:f>
+              <c:f>Sheet2!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -252,7 +255,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$20:$B$24</c:f>
+              <c:f>Sheet2!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -276,24 +279,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$20:$C$24</c:f>
+              <c:f>Sheet2!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>168.97</c:v>
+                  <c:v>95.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>168.9</c:v>
+                  <c:v>95.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>169.11</c:v>
+                  <c:v>95.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>169</c:v>
+                  <c:v>95.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168.79</c:v>
+                  <c:v>95.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -305,7 +308,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$19</c:f>
+              <c:f>Sheet2!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -326,7 +329,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$20:$B$24</c:f>
+              <c:f>Sheet2!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -350,24 +353,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$20:$D$24</c:f>
+              <c:f>Sheet2!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>139.76</c:v>
+                  <c:v>95.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139.72999999999999</c:v>
+                  <c:v>95.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139.85</c:v>
+                  <c:v>95.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.87</c:v>
+                  <c:v>95.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>139.88999999999999</c:v>
+                  <c:v>95.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,7 +382,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$19</c:f>
+              <c:f>Sheet2!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -400,7 +403,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$20:$B$24</c:f>
+              <c:f>Sheet2!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -424,24 +427,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$20:$E$24</c:f>
+              <c:f>Sheet2!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>237.24</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237.03</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>236.2</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235.4</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>240.62</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,15 +459,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="66044480"/>
-        <c:axId val="66043904"/>
+        <c:axId val="139026432"/>
+        <c:axId val="134356288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66044480"/>
+        <c:axId val="139026432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6"/>
-          <c:min val="0"/>
+          <c:max val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -483,7 +485,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> rate (packets/sec)</a:t>
+                  <a:t> Rate (packets/second)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-AU"/>
               </a:p>
@@ -496,16 +498,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66043904"/>
+        <c:crossAx val="134356288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66043904"/>
+        <c:axId val="134356288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="250"/>
-          <c:min val="100"/>
+          <c:max val="100"/>
+          <c:min val="90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -520,11 +522,682 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Average cumulative propagation</a:t>
+                  <a:t>Percentage of successfully routed packets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139026432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$10:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$10:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$10:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="135627904"/>
+        <c:axId val="135627328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="135627904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Packet Rate (packets/second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135627328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="135627328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Average number of hops per circuit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135627904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$17:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>168.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$17:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$17:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>139.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139.88999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$17:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$17:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>238.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>237.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>237.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="135617856"/>
+        <c:axId val="135614400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="135617856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Packet</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> delay per circuit</a:t>
+                  <a:t> Rate (packets/second)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-AU"/>
               </a:p>
@@ -537,7 +1210,46 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66044480"/>
+        <c:crossAx val="135614400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="135614400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Average cumulative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> propagation delay per circuit</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135617856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -575,20 +1287,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>506016</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>583406</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220266</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -598,6 +1310,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>291703</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>315514</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1056,337 +1828,279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E24"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>95.22</v>
+      </c>
+      <c r="D3">
+        <v>95.23</v>
+      </c>
+      <c r="E3" s="7">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>95.3</v>
+      </c>
+      <c r="D4">
+        <v>95.36</v>
+      </c>
+      <c r="E4" s="7">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>95.32</v>
+      </c>
+      <c r="D5">
+        <v>95.46</v>
+      </c>
+      <c r="E5" s="7">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>95.36</v>
+      </c>
+      <c r="D6">
+        <v>95.44</v>
+      </c>
+      <c r="E6" s="7">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>95.36</v>
+      </c>
+      <c r="D7">
+        <v>95.5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>92.66</v>
-      </c>
-      <c r="D3">
-        <v>3.66</v>
-      </c>
-      <c r="E3">
-        <v>168.97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>94.61</v>
-      </c>
-      <c r="D4">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="E4">
-        <v>139.76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>99.84</v>
-      </c>
-      <c r="D5">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="E5">
-        <v>237.24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>92.97</v>
-      </c>
-      <c r="D6">
-        <v>3.66</v>
-      </c>
-      <c r="E6">
-        <v>168.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>94.97</v>
-      </c>
-      <c r="D7">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="E7">
-        <v>139.72999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>99.88</v>
-      </c>
-      <c r="D8">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="E8">
-        <v>237.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>93.03</v>
-      </c>
-      <c r="D9">
-        <v>3.66</v>
-      </c>
-      <c r="E9">
-        <v>169.11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>95.07</v>
+        <v>3.67</v>
       </c>
       <c r="D10">
         <v>4.37</v>
       </c>
-      <c r="E10">
-        <v>139.85</v>
+      <c r="E10" s="7">
+        <v>4.87</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>99.88</v>
+        <v>3.67</v>
       </c>
       <c r="D11">
-        <v>4.84</v>
-      </c>
-      <c r="E11">
-        <v>236.2</v>
+        <v>4.37</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.8600000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3.67</v>
+      </c>
+      <c r="D12">
+        <v>4.37</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>93.09</v>
-      </c>
-      <c r="D12">
-        <v>3.66</v>
-      </c>
-      <c r="E12">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>95.13</v>
+        <v>3.67</v>
       </c>
       <c r="D13">
         <v>4.37</v>
       </c>
-      <c r="E13">
-        <v>139.87</v>
+      <c r="E13" s="7">
+        <v>4.8600000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>3.67</v>
+      </c>
+      <c r="D14">
+        <v>4.37</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>99.89</v>
-      </c>
-      <c r="D14">
-        <v>4.83</v>
-      </c>
-      <c r="E14">
-        <v>235.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>168.45</v>
+      </c>
+      <c r="D17">
+        <v>139.84</v>
+      </c>
+      <c r="E17" s="7">
+        <v>238.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>168.37</v>
+      </c>
+      <c r="D18">
+        <v>139.9</v>
+      </c>
+      <c r="E18" s="7">
+        <v>237.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>168.44</v>
+      </c>
+      <c r="D19">
+        <v>139.83000000000001</v>
+      </c>
+      <c r="E19" s="7">
+        <v>237.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>168.45</v>
+      </c>
+      <c r="D20">
+        <v>139.81</v>
+      </c>
+      <c r="E20" s="7">
+        <v>237.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>92.4</v>
-      </c>
-      <c r="D15">
-        <v>3.66</v>
-      </c>
-      <c r="E15">
-        <v>168.79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>94.47</v>
-      </c>
-      <c r="D16">
-        <v>4.37</v>
-      </c>
-      <c r="E16">
+      <c r="C21">
+        <v>168.67</v>
+      </c>
+      <c r="D21">
         <v>139.88999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>99.71</v>
-      </c>
-      <c r="D17">
-        <v>4.92</v>
-      </c>
-      <c r="E17">
-        <v>240.62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>168.97</v>
-      </c>
-      <c r="D20">
-        <v>139.76</v>
-      </c>
-      <c r="E20">
-        <v>237.24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>168.9</v>
-      </c>
-      <c r="D21">
-        <v>139.72999999999999</v>
-      </c>
-      <c r="E21">
-        <v>237.03</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>169.11</v>
-      </c>
-      <c r="D22">
-        <v>139.85</v>
-      </c>
-      <c r="E22">
-        <v>236.2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>169</v>
-      </c>
-      <c r="D23">
-        <v>139.87</v>
-      </c>
-      <c r="E23">
-        <v>235.4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>168.79</v>
-      </c>
-      <c r="D24">
-        <v>139.88999999999999</v>
-      </c>
-      <c r="E24">
-        <v>240.62</v>
+      <c r="E21" s="7">
+        <v>237.76</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
